--- a/covid-ed-ig/ValueSet-covid-19-lab-alt.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-lab-alt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>001</t>
   </si>
   <si>
     <t>Description</t>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>44785-4</t>
+  </si>
+  <si>
+    <t>25302-1</t>
   </si>
   <si>
     <t/>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,16 +465,22 @@
       <c r="A7" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
         <v>33</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
         <v>34</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +490,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,33 +498,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -523,18 +532,18 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -542,18 +551,18 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -561,18 +570,18 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -580,18 +589,18 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -599,10 +608,29 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>43</v>
+      <c r="B7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/covid-ed-ig/ValueSet-covid-19-lab-alt.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-lab-alt.xlsx
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>001</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-lab-alt.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-lab-alt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>COVID19LabALT</t>
+    <t>COVID19LabAlt</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>COVID-19 Laboratory Value Set for ALT</t>
+    <t>COVID-19 Laboratory Value Set for Alt</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-02-26T20:00:00+00:00</t>
+    <t>2022-01-04T20:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>44785-4</t>
-  </si>
-  <si>
-    <t>25302-1</t>
   </si>
   <si>
     <t/>
@@ -413,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,22 +462,16 @@
       <c r="A7" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
         <v>33</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,33 +489,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>41</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -532,18 +523,18 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -551,18 +542,18 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -570,18 +561,18 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -589,18 +580,18 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -608,29 +599,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
